--- a/src/main/resources/templates/user_template.xlsx
+++ b/src/main/resources/templates/user_template.xlsx
@@ -79,12 +79,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Mã Sản phẩm</t>
-  </si>
-  <si>
-    <t>Ngày duyệt</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -95,6 +89,12 @@
   </si>
   <si>
     <t>${detail.email}</t>
+  </si>
+  <si>
+    <t>User Name</t>
+  </si>
+  <si>
+    <t>Email</t>
   </si>
 </sst>
 </file>
@@ -465,7 +465,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,25 +484,25 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
